--- a/StateOfPractice/DomainMeasurements/LBM-Peter/Report/LBM_Figures_Updated.xlsx
+++ b/StateOfPractice/DomainMeasurements/LBM-Peter/Report/LBM_Figures_Updated.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smiths/Repos/AIMSS/StateOfPractice/DomainMeasurements/LBM-Peter/Report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BADBAE-07B4-0E47-8217-264265612692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView xWindow="2840" yWindow="2020" windowWidth="29740" windowHeight="16380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Installability" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Correctness &amp; Verifiability" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Reliability" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Robustness" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Usability" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Maintainability" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Reusability" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Understandability" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Visibility &amp; Transparency" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Installability" sheetId="2" r:id="rId2"/>
+    <sheet name="Correctness &amp; Verifiability" sheetId="3" r:id="rId3"/>
+    <sheet name="Reliability" sheetId="4" r:id="rId4"/>
+    <sheet name="Robustness" sheetId="5" r:id="rId5"/>
+    <sheet name="Usability" sheetId="6" r:id="rId6"/>
+    <sheet name="Maintainability" sheetId="7" r:id="rId7"/>
+    <sheet name="Reusability" sheetId="8" r:id="rId8"/>
+    <sheet name="Understandability" sheetId="9" r:id="rId9"/>
+    <sheet name="Visibility &amp; Transparency" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -31,105 +36,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="24">
   <si>
-    <t xml:space="preserve">ESPResSo</t>
+    <t>ESPResSo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ludwig</t>
+    <t>Ludwig</t>
   </si>
   <si>
-    <t xml:space="preserve">Palabos</t>
+    <t>Palabos</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenLB</t>
+    <t>OpenLB</t>
   </si>
   <si>
-    <t xml:space="preserve">LUMA</t>
+    <t>LUMA</t>
   </si>
   <si>
-    <t xml:space="preserve">pyLBM</t>
+    <t>pyLBM</t>
   </si>
   <si>
-    <t xml:space="preserve">DL_MESO (LBE)</t>
+    <t>DL_MESO (LBE)</t>
   </si>
   <si>
-    <t xml:space="preserve">Musubi</t>
+    <t>Musubi</t>
   </si>
   <si>
-    <t xml:space="preserve">Sailfish</t>
+    <t>Sailfish</t>
   </si>
   <si>
-    <t xml:space="preserve">waLBerla</t>
+    <t>waLBerla</t>
   </si>
   <si>
-    <t xml:space="preserve">laboetie</t>
+    <t>laboetie</t>
   </si>
   <si>
-    <t xml:space="preserve">TCLB</t>
+    <t>TCLB</t>
   </si>
   <si>
-    <t xml:space="preserve">MechSys</t>
+    <t>MechSys</t>
   </si>
   <si>
-    <t xml:space="preserve">lettuce</t>
+    <t>lettuce</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPResSo++</t>
+    <t>ESPResSo++</t>
   </si>
   <si>
-    <t xml:space="preserve">MP-LABS</t>
+    <t>MP-LABS</t>
   </si>
   <si>
-    <t xml:space="preserve">SunlightLB</t>
+    <t>SunlightLB</t>
   </si>
   <si>
-    <t xml:space="preserve">LB3D</t>
+    <t>LB3D</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMBES</t>
+    <t>LIMBES</t>
   </si>
   <si>
-    <t xml:space="preserve">LB2D-Prime</t>
+    <t>LB2D-Prime</t>
   </si>
   <si>
-    <t xml:space="preserve">HemeLB</t>
+    <t>HemeLB</t>
   </si>
   <si>
-    <t xml:space="preserve">lbmpy</t>
+    <t>lbmpy</t>
   </si>
   <si>
-    <t xml:space="preserve">LB3D-Prime</t>
+    <t>LB3D-Prime</t>
   </si>
   <si>
-    <t xml:space="preserve">LatBo.jl</t>
+    <t>LatBo.jl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,13 +126,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -159,7 +139,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -167,57 +147,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -276,18 +223,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart208.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -305,15 +271,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -321,8 +295,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -416,22 +391,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.067</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.061</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.058</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.05</c:v>
@@ -440,59 +415,71 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.044</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.026</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.024</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-008D-E942-B821-07FF59A17998}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="16967247"/>
         <c:axId val="79851087"/>
       </c:barChart>
@@ -510,7 +497,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -519,10 +506,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="79851087"/>
@@ -546,12 +534,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -574,7 +562,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -583,10 +571,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16967247"/>
@@ -597,32 +586,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart209.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -640,15 +638,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -656,8 +662,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -666,173 +673,185 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Installability!$A$2:$A$25</c:f>
+              <c:f>'Visibility &amp; Transparency'!$A$2:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Ludwig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Palabos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LUMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>ESPResSo</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>MP-LABS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenLB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LatBo.jl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pyLBM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>waLBerla</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TCLB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>lettuce</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lbmpy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sailfish</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>HemeLB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LIMBES</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LB3D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LB2D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>DL_MESO (LBE)</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>MechSys</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>OpenLB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DL_MESO (LBE)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sailfish</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Palabos</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>pyLBM</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LIMBES</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
                   <c:v>LB3D</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>SunlightLB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ESPResSo++</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>laboetie</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>Musubi</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>laboetie</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LB3D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LUMA</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SunlightLB</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TCLB</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MP-LABS</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>lbmpy</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ludwig</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>HemeLB</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>ESPResSo++</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>lettuce</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>LB2D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>waLBerla</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>LatBo.jl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Installability!$B$2:$B$25</c:f>
+              <c:f>'Visibility &amp; Transparency'!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.101</c:v>
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.101</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.101</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.096</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.077</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.066</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.049</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.047</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.045</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.039</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.033</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.03</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.023</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.016</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.016</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.008</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.007</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9574-194D-BCA6-4EDB46DA8EC9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="37170596"/>
-        <c:axId val="1220618"/>
+        <c:axId val="43863484"/>
+        <c:axId val="16604643"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37170596"/>
+        <c:axId val="43863484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,7 +864,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -854,13 +873,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220618"/>
+        <c:crossAx val="16604643"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -868,7 +888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1220618"/>
+        <c:axId val="16604643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,12 +901,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -909,7 +929,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -918,13 +938,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37170596"/>
+        <c:crossAx val="43863484"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,32 +953,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart210.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -975,15 +1005,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -991,8 +1029,378 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Installability!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ESPResSo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MechSys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenLB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DL_MESO (LBE)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sailfish</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Palabos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pyLBM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LIMBES</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LB3D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Musubi</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>laboetie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LB3D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LUMA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SunlightLB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TCLB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MP-LABS</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>lbmpy</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ludwig</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>HemeLB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ESPResSo++</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>lettuce</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>LB2D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>waLBerla</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>LatBo.jl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Installability!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3263-6A4B-A77E-8479F543C0BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="37170596"/>
+        <c:axId val="1220618"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="37170596"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220618"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1220618"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.10500000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>AHP Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37170596"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1095,74 +1503,86 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.053</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.048</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.022</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.018</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.013</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1170-704C-99DB-126F6761EE7C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="312602"/>
         <c:axId val="4816625"/>
       </c:barChart>
@@ -1180,7 +1600,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1189,10 +1609,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="4816625"/>
@@ -1216,12 +1637,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -1244,7 +1665,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1253,10 +1674,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="312602"/>
@@ -1267,32 +1689,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart211.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1310,15 +1741,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1326,8 +1765,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1421,83 +1861,95 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.074</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.058</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.037</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.033</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B72C-924E-A286-62AC04DB42DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="22132738"/>
         <c:axId val="51966188"/>
       </c:barChart>
@@ -1515,7 +1967,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1524,10 +1976,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="51966188"/>
@@ -1551,12 +2004,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -1579,7 +2032,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1588,10 +2041,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="22132738"/>
@@ -1602,32 +2056,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart212.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1645,15 +2108,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1661,8 +2132,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1756,83 +2228,95 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.055</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.055</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.038</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.004</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29B2-7749-9FF1-F25E6E13095A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="40313047"/>
         <c:axId val="71338943"/>
       </c:barChart>
@@ -1850,7 +2334,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1859,10 +2343,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="71338943"/>
@@ -1886,12 +2371,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -1914,7 +2399,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1923,10 +2408,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="40313047"/>
@@ -1937,32 +2423,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart213.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1980,15 +2475,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1996,8 +2499,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2097,31 +2601,31 @@
                   <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.093</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.086</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.063</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.062</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.044</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.03</c:v>
@@ -2130,44 +2634,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.018</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.016</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BF4-F346-AAEB-870A1FF7AECC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="39794072"/>
         <c:axId val="95249569"/>
       </c:barChart>
@@ -2185,7 +2701,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2194,10 +2710,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95249569"/>
@@ -2221,12 +2738,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -2249,7 +2766,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2258,10 +2775,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39794072"/>
@@ -2272,32 +2790,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart214.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2315,15 +2842,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2331,8 +2866,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2426,13 +2962,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.099</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.097</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.086</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.08</c:v>
@@ -2441,68 +2977,80 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.073</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.062</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.035</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.008</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B346-C84B-827E-8EBCCE72B908}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="37603790"/>
         <c:axId val="51822219"/>
       </c:barChart>
@@ -2520,7 +3068,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2529,10 +3077,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="51822219"/>
@@ -2556,12 +3105,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -2584,7 +3133,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2593,10 +3142,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="37603790"/>
@@ -2607,32 +3157,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart215.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2650,15 +3209,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2666,8 +3233,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2767,77 +3335,89 @@
                   <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.085</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.081</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.064</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.061</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.044</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.031</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.024</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.022</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.013</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-396A-284D-9D5F-96094B7C2DA8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="74342315"/>
         <c:axId val="77353730"/>
       </c:barChart>
@@ -2855,7 +3435,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2864,10 +3444,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77353730"/>
@@ -2891,12 +3472,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -2919,7 +3500,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -2928,10 +3509,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74342315"/>
@@ -2942,32 +3524,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart216.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2985,15 +3576,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3001,8 +3600,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3099,80 +3699,92 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.091</c:v>
+                  <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.054</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.026</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.024</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63AB-8240-BE8A-ECCB5F1B2064}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="12825193"/>
         <c:axId val="27852492"/>
       </c:barChart>
@@ -3190,7 +3802,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -3199,10 +3811,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="27852492"/>
@@ -3226,12 +3839,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -3254,7 +3867,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -3263,10 +3876,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="12825193"/>
@@ -3277,362 +3891,33 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart217.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Visibility &amp; Transparency'!$A$2:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Ludwig</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Palabos</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LUMA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ESPResSo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP-LABS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>OpenLB</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LatBo.jl</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>pyLBM</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>waLBerla</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TCLB</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>lettuce</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>lbmpy</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sailfish</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>HemeLB</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>LIMBES</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>LB3D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>LB2D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>DL_MESO (LBE)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>MechSys</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>LB3D</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SunlightLB</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ESPResSo++</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>laboetie</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Musubi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Visibility &amp; Transparency'!$B$2:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.196</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.074</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.058</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.033</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.029</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.015</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.012</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="43863484"/>
-        <c:axId val="16604643"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="43863484"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="16604643"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="16604643"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>AHP Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="43863484"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3646,14 +3931,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2428560" y="631080"/>
-        <a:ext cx="7295760" cy="3241800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3667,7 +3958,7 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3681,14 +3972,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2434680" y="609120"/>
-        <a:ext cx="7299360" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3702,28 +3999,34 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>809640</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>34940</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>803520</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>46900</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2435040" y="370800"/>
-        <a:ext cx="7309080" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3737,7 +4040,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3751,14 +4054,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2424960" y="380520"/>
-        <a:ext cx="7319160" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3772,7 +4081,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3786,14 +4095,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2424960" y="504720"/>
-        <a:ext cx="7319160" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3807,7 +4122,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3821,14 +4136,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2444760" y="351360"/>
-        <a:ext cx="7289280" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3842,7 +4163,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3856,14 +4177,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2464560" y="542520"/>
-        <a:ext cx="7279560" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3877,7 +4204,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3891,14 +4218,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2435040" y="514080"/>
-        <a:ext cx="7289280" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3912,7 +4245,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3926,14 +4259,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2405160" y="466200"/>
-        <a:ext cx="7338960" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3947,7 +4286,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3961,14 +4300,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2405160" y="427680"/>
-        <a:ext cx="7338960" cy="3239640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3981,216 +4326,507 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.015</v>
+      <c r="B25">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4199,215 +4835,211 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.196</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.112</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.011</v>
+      <c r="B25">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4416,215 +5048,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.096</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.007</v>
+      <c r="B25">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4633,215 +5261,211 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.155</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.053</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4850,215 +5474,211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.005</v>
+      <c r="B25">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5067,215 +5687,211 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.004</v>
+      <c r="B25">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5284,215 +5900,211 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.111</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.093</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.086</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.063</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5501,215 +6113,211 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.097</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.086</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.073</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.008</v>
+      <c r="B25">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5718,215 +6326,211 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.122</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.122</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.085</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.081</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5935,215 +6539,211 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.009</v>
+      <c r="B25">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
